--- a/SchedulingData/dynamic12/pso/scheduling2_11.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>250.54</v>
+        <v>206.08</v>
       </c>
       <c r="D2" t="n">
-        <v>320.18</v>
+        <v>252.78</v>
       </c>
       <c r="E2" t="n">
-        <v>15.532</v>
+        <v>15.372</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>250.92</v>
+        <v>230.54</v>
       </c>
       <c r="D3" t="n">
-        <v>310.42</v>
+        <v>282.08</v>
       </c>
       <c r="E3" t="n">
-        <v>14.068</v>
+        <v>14.952</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>231.44</v>
+        <v>230.28</v>
       </c>
       <c r="D4" t="n">
-        <v>276</v>
+        <v>280.58</v>
       </c>
       <c r="E4" t="n">
-        <v>13.04</v>
+        <v>12.592</v>
       </c>
     </row>
     <row r="5">
@@ -523,17 +523,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>310.42</v>
+        <v>219.74</v>
       </c>
       <c r="D5" t="n">
-        <v>363.02</v>
+        <v>272.12</v>
       </c>
       <c r="E5" t="n">
-        <v>10.948</v>
+        <v>10.968</v>
       </c>
     </row>
     <row r="6">
@@ -542,226 +542,226 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>222.02</v>
+        <v>265.96</v>
       </c>
       <c r="D6" t="n">
-        <v>256.64</v>
+        <v>336.68</v>
       </c>
       <c r="E6" t="n">
-        <v>13.036</v>
+        <v>12.912</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>276</v>
+        <v>272.12</v>
       </c>
       <c r="D7" t="n">
-        <v>322.1</v>
+        <v>335.22</v>
       </c>
       <c r="E7" t="n">
-        <v>10.56</v>
+        <v>6.768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>320.18</v>
+        <v>252.78</v>
       </c>
       <c r="D8" t="n">
-        <v>371.58</v>
+        <v>321.72</v>
       </c>
       <c r="E8" t="n">
-        <v>13.012</v>
+        <v>12.068</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>256.64</v>
+        <v>321.72</v>
       </c>
       <c r="D9" t="n">
-        <v>309.98</v>
+        <v>378.52</v>
       </c>
       <c r="E9" t="n">
-        <v>9.811999999999999</v>
+        <v>8.988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>371.58</v>
+        <v>336.68</v>
       </c>
       <c r="D10" t="n">
-        <v>436.58</v>
+        <v>381.64</v>
       </c>
       <c r="E10" t="n">
-        <v>8.632</v>
+        <v>10.536</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>309.98</v>
+        <v>280.58</v>
       </c>
       <c r="D11" t="n">
-        <v>366.84</v>
+        <v>331.58</v>
       </c>
       <c r="E11" t="n">
-        <v>7.216</v>
+        <v>10.112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>436.58</v>
+        <v>282.08</v>
       </c>
       <c r="D12" t="n">
-        <v>484.38</v>
+        <v>314</v>
       </c>
       <c r="E12" t="n">
-        <v>6.472</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>366.84</v>
+        <v>335.22</v>
       </c>
       <c r="D13" t="n">
-        <v>408.94</v>
+        <v>384.04</v>
       </c>
       <c r="E13" t="n">
-        <v>4.136</v>
+        <v>3.016</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>226.2</v>
+        <v>381.64</v>
       </c>
       <c r="D14" t="n">
-        <v>283.48</v>
+        <v>443.74</v>
       </c>
       <c r="E14" t="n">
-        <v>9.472</v>
+        <v>7.456</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>206.8</v>
+        <v>378.52</v>
       </c>
       <c r="D15" t="n">
-        <v>268.34</v>
+        <v>418.04</v>
       </c>
       <c r="E15" t="n">
-        <v>13.336</v>
+        <v>6.656</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>283.48</v>
+        <v>314</v>
       </c>
       <c r="D16" t="n">
-        <v>340.58</v>
+        <v>373.36</v>
       </c>
       <c r="E16" t="n">
-        <v>6.392</v>
+        <v>9.584</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>340.58</v>
+        <v>331.58</v>
       </c>
       <c r="D17" t="n">
-        <v>403.18</v>
+        <v>388.5</v>
       </c>
       <c r="E17" t="n">
-        <v>2.732</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="18">
@@ -770,55 +770,55 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>322.1</v>
+        <v>215.9</v>
       </c>
       <c r="D18" t="n">
-        <v>402.2</v>
+        <v>267.34</v>
       </c>
       <c r="E18" t="n">
-        <v>5.64</v>
+        <v>12.436</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>268.34</v>
+        <v>388.5</v>
       </c>
       <c r="D19" t="n">
-        <v>317.3</v>
+        <v>416.5</v>
       </c>
       <c r="E19" t="n">
-        <v>10.06</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>363.02</v>
+        <v>418.04</v>
       </c>
       <c r="D20" t="n">
-        <v>417.82</v>
+        <v>499.94</v>
       </c>
       <c r="E20" t="n">
-        <v>7.588</v>
+        <v>3.576</v>
       </c>
     </row>
     <row r="21">
@@ -831,127 +831,127 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>408.94</v>
+        <v>443.74</v>
       </c>
       <c r="D21" t="n">
-        <v>451.94</v>
+        <v>496.34</v>
       </c>
       <c r="E21" t="n">
-        <v>1.976</v>
+        <v>5.296</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>451.94</v>
+        <v>384.04</v>
       </c>
       <c r="D22" t="n">
-        <v>519.89</v>
+        <v>434.24</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>402.2</v>
+        <v>434.24</v>
       </c>
       <c r="D23" t="n">
-        <v>472.2</v>
+        <v>539.45</v>
       </c>
       <c r="E23" t="n">
-        <v>3.22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>317.3</v>
+        <v>416.5</v>
       </c>
       <c r="D24" t="n">
-        <v>388.64</v>
+        <v>459.1</v>
       </c>
       <c r="E24" t="n">
-        <v>7.036</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>417.82</v>
+        <v>459.1</v>
       </c>
       <c r="D25" t="n">
-        <v>477.88</v>
+        <v>556.88</v>
       </c>
       <c r="E25" t="n">
-        <v>5.212</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>403.18</v>
+        <v>267.34</v>
       </c>
       <c r="D26" t="n">
-        <v>447.6</v>
+        <v>349.74</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4</v>
+        <v>8.795999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>447.6</v>
+        <v>373.36</v>
       </c>
       <c r="D27" t="n">
-        <v>543.4</v>
+        <v>461.06</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>5.924</v>
       </c>
     </row>
     <row r="28">
@@ -960,17 +960,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>388.64</v>
+        <v>461.06</v>
       </c>
       <c r="D28" t="n">
-        <v>450.44</v>
+        <v>510.68</v>
       </c>
       <c r="E28" t="n">
-        <v>3.956</v>
+        <v>3.592</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>pond17</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>349.74</v>
+      </c>
+      <c r="D29" t="n">
+        <v>425.74</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6.276</v>
       </c>
     </row>
   </sheetData>
